--- a/仕様書/ゲームフロー.xlsx
+++ b/仕様書/ゲームフロー.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Documents\CaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
+    <sheet name="タイトルフロー必要リソース" sheetId="5" r:id="rId2"/>
+    <sheet name="ゲームシーンフロー" sheetId="1" r:id="rId3"/>
+    <sheet name="ゲームシーン必要リソース" sheetId="2" r:id="rId4"/>
+    <sheet name="リザルトフロー" sheetId="3" r:id="rId5"/>
+    <sheet name="リザルトフロー必要リソース" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>表示物</t>
     <rPh sb="0" eb="2">
@@ -58,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100x100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -354,6 +354,783 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル名のテクスチャです。</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字ごとの分割はありません。＋α縁取りと文字を別々に書く。色のみグラデーションの画像を作っておく。文字の背景に使うアニメーション用のテクスチャーを書く。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フチド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。＋α文字を文字の背景用のテクスチャを波立たせる（横）。色のみの画像のUVアニメーションで文字内部の色変換（MRT）。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハイケイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナミダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景の画像です。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。＋α波立たせる（横）。色のみの画像のUVアニメーションで色変換（MRT）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。上下左右がつながるように工夫してください。＋α複数枚を組み合わせて世界観を表現（検討中）。そのほかステージを想像させるようなオブジェクトの制作。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>セカイカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUSH　BUTTON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにボタンを押して！と提示するボタン。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面下部固定。タイトル表示から0.9sec経ってから表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく！縦が200以上。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく！縦が200以上。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面背景</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400x400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面を見やすくするための画像。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するだけ。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナーでもできるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく。縦200以上。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。プレイヤーがボタンを押したら表示(中央)。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにメニューを選択させるもの。</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかたの三種類。</t>
+    <rPh sb="16" eb="19">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100x100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ（横x縦）</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを表示。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを分からせるためのもの。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作により移動。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし。プログラマーさんが作る！</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝者アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべく大きく！ゲーム参照</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央固定。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限ループです。</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200x200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央部固定。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得した宝物の画像。</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に表示したものと同じものを表示。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗者アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべく大きく！ゲーム参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擬似３Dでの勝者よりも奥。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けたプレイヤーの悔しがっているアニメーション。</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利したプレイヤーの嬉しいアニメーション。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。UVアニメーション。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。UVアニメーション。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦200以上</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利プレイヤーの結果表示上部に配置。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利プレイヤーの識別表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIN,LOSE（文字）</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。＋α縁取りとレイヤーを分ける。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フチド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するだけ。＋αメッシュ表示で波、UVアニメーション。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面外上部から落下。指定位置で停止</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物（仮）</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面の背景です。電気信号を流す予定。電気信号はプログラマーが書くので不要。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置のみ。電気信号は頑張って！</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子回路のようなもの。</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,7 +1164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -512,15 +1289,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,23 +1372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,32 +1387,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2824,8 +3653,962 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X32"/>
+  <sheetViews>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2839,318 +4622,326 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="16" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="17"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="17"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="17"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J13:M18"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
@@ -3159,14 +4950,961 @@
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="D13:E18"/>
     <mergeCell ref="F13:I18"/>
-    <mergeCell ref="F3:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E7"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F3:I7"/>
     <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="V3:X7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
